--- a/with_new_data/train_ready.xlsx
+++ b/with_new_data/train_ready.xlsx
@@ -20,13 +20,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +54,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -353,15 +361,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection sqref="A1:AJ153"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AJ317" sqref="AJ317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -429,13 +437,13 @@
         <v>1</v>
       </c>
       <c r="W1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z1">
         <v>1</v>
@@ -447,19 +455,20 @@
         <v>1</v>
       </c>
       <c r="AC1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF1">
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -527,37 +536,37 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
         <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -625,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -637,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>1</v>
@@ -646,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -723,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -744,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -753,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -824,25 +833,25 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
         <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE5">
         <v>1</v>
@@ -851,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -919,37 +928,37 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1017,37 +1026,37 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1124,28 +1133,28 @@
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
         <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1219,31 +1228,31 @@
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE9">
         <v>1</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1311,37 +1320,37 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE10">
         <v>1</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1409,13 +1418,13 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1430,16 +1439,16 @@
         <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1507,37 +1516,37 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1605,37 +1614,37 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1712,19 +1721,19 @@
         <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
         <v>1</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE14">
         <v>1</v>
@@ -1733,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1804,34 +1813,34 @@
         <v>1</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
         <v>1</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1899,31 +1908,31 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD16">
         <v>1</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2003,10 +2012,10 @@
         <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -2015,13 +2024,13 @@
         <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2095,31 +2104,31 @@
         <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
         <v>1</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2199,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2208,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD19">
         <v>1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2291,34 +2300,34 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
         <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
@@ -2398,25 +2407,25 @@
         <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
@@ -2487,28 +2496,28 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE22">
         <v>1</v>
@@ -2585,31 +2594,31 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2683,34 +2692,34 @@
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -2781,16 +2790,16 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>1</v>
@@ -2799,16 +2808,16 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE25">
         <v>1</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -2885,16 +2894,16 @@
         <v>1</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
         <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
         <v>1</v>
@@ -2977,16 +2986,16 @@
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>1</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
         <v>1</v>
@@ -2998,10 +3007,10 @@
         <v>1</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -3075,22 +3084,22 @@
         <v>1</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>1</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
         <v>1</v>
@@ -3173,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -3197,10 +3206,10 @@
         <v>1</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
@@ -3271,31 +3280,31 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
         <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF30">
         <v>1</v>
@@ -3384,19 +3393,19 @@
         <v>1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE31">
         <v>1</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
@@ -3467,28 +3476,28 @@
         <v>1</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE32">
         <v>1</v>
@@ -3565,31 +3574,31 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3761,34 +3770,34 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
@@ -3957,13 +3966,13 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>1</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -3975,13 +3984,13 @@
         <v>1</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF37">
         <v>1</v>
@@ -4061,25 +4070,25 @@
         <v>1</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -4168,19 +4177,19 @@
         <v>1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
         <v>1</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE39">
         <v>1</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
@@ -4251,31 +4260,31 @@
         <v>1</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
         <v>1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -4352,10 +4361,10 @@
         <v>1</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
         <v>1</v>
@@ -4364,16 +4373,16 @@
         <v>1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4450,25 +4459,25 @@
         <v>1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>1</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE42">
         <v>1</v>
@@ -4545,34 +4554,34 @@
         <v>1</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD43">
         <v>1</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -4646,22 +4655,22 @@
         <v>1</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -4741,34 +4750,34 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
@@ -4839,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>1</v>
@@ -4854,16 +4863,16 @@
         <v>1</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4937,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>1</v>
@@ -4952,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
         <v>1</v>
@@ -4961,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -5035,25 +5044,25 @@
         <v>1</v>
       </c>
       <c r="W48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>1</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
         <v>1</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD48">
         <v>1</v>
@@ -5062,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
@@ -5136,28 +5145,28 @@
         <v>1</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
         <v>1</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -5231,16 +5240,16 @@
         <v>1</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
         <v>1</v>
@@ -5249,16 +5258,16 @@
         <v>1</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE50">
         <v>1</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
@@ -5329,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>1</v>
@@ -5344,16 +5353,16 @@
         <v>1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF51">
         <v>1</v>
@@ -5427,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
         <v>1</v>
@@ -5445,16 +5454,16 @@
         <v>1</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
@@ -5525,16 +5534,16 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>1</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
         <v>1</v>
@@ -5543,16 +5552,16 @@
         <v>1</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE53">
         <v>1</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -5623,34 +5632,34 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -5721,10 +5730,10 @@
         <v>0</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>1</v>
@@ -5736,19 +5745,19 @@
         <v>1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
@@ -5825,25 +5834,25 @@
         <v>1</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
         <v>1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF56">
         <v>1</v>
@@ -5917,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>1</v>
@@ -5932,16 +5941,16 @@
         <v>1</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD57">
         <v>1</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF57">
         <v>1</v>
@@ -6015,34 +6024,34 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
         <v>1</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE58">
         <v>1</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
@@ -6113,13 +6122,13 @@
         <v>1</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>1</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
         <v>1</v>
@@ -6131,16 +6140,16 @@
         <v>1</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE59">
         <v>1</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
@@ -6217,25 +6226,25 @@
         <v>1</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
         <v>1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -6309,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>1</v>
@@ -6318,22 +6327,22 @@
         <v>1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>1</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF61">
         <v>1</v>
@@ -6407,13 +6416,13 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
         <v>1</v>
@@ -6425,16 +6434,16 @@
         <v>1</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE62">
         <v>1</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
@@ -6603,31 +6612,31 @@
         <v>1</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
         <v>1</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF64">
         <v>1</v>
@@ -6701,31 +6710,31 @@
         <v>1</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
         <v>1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD65">
         <v>1</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF65">
         <v>1</v>
@@ -6799,34 +6808,34 @@
         <v>1</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
@@ -6897,10 +6906,10 @@
         <v>1</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>1</v>
@@ -6924,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="AF67">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
@@ -6995,13 +7004,13 @@
         <v>0</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>1</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>1</v>
@@ -7010,16 +7019,16 @@
         <v>1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF68">
         <v>1</v>
@@ -7111,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD69">
         <v>1</v>
@@ -7200,22 +7209,22 @@
         <v>1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
         <v>1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
         <v>1</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF70">
         <v>1</v>
@@ -7304,19 +7313,19 @@
         <v>1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD71">
         <v>1</v>
       </c>
       <c r="AE71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF71">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
@@ -7390,28 +7399,28 @@
         <v>1</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
         <v>1</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF72">
         <v>1</v>
@@ -7485,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>1</v>
@@ -7494,22 +7503,22 @@
         <v>1</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
         <v>1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF73">
         <v>1</v>
@@ -7583,34 +7592,34 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>1</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE74">
         <v>1</v>
       </c>
       <c r="AF74">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
@@ -7687,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
         <v>1</v>
@@ -7699,7 +7708,7 @@
         <v>1</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD75">
         <v>1</v>
@@ -7779,13 +7788,13 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
         <v>1</v>
@@ -7794,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
         <v>1</v>
@@ -7803,10 +7812,10 @@
         <v>1</v>
       </c>
       <c r="AE76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF76">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
@@ -7877,34 +7886,34 @@
         <v>0</v>
       </c>
       <c r="W77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
         <v>1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE77">
         <v>1</v>
       </c>
       <c r="AF77">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
@@ -7975,34 +7984,34 @@
         <v>1</v>
       </c>
       <c r="W78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
         <v>1</v>
       </c>
       <c r="AD78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF78">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
@@ -8073,13 +8082,13 @@
         <v>1</v>
       </c>
       <c r="W79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
         <v>1</v>
@@ -8091,16 +8100,16 @@
         <v>1</v>
       </c>
       <c r="AC79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF79">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
@@ -8174,10 +8183,10 @@
         <v>1</v>
       </c>
       <c r="X80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>1</v>
@@ -8186,16 +8195,16 @@
         <v>1</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
         <v>1</v>
       </c>
       <c r="AD80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF80">
         <v>1</v>
@@ -8269,16 +8278,16 @@
         <v>1</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
         <v>1</v>
@@ -8287,16 +8296,16 @@
         <v>1</v>
       </c>
       <c r="AC81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE81">
         <v>1</v>
       </c>
       <c r="AF81">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
@@ -8367,16 +8376,16 @@
         <v>1</v>
       </c>
       <c r="W82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>1</v>
       </c>
       <c r="Y82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>1</v>
@@ -8385,13 +8394,13 @@
         <v>1</v>
       </c>
       <c r="AC82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF82">
         <v>1</v>
@@ -8471,7 +8480,7 @@
         <v>1</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>1</v>
@@ -8480,16 +8489,16 @@
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
         <v>1</v>
       </c>
       <c r="AD83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF83">
         <v>1</v>
@@ -8569,7 +8578,7 @@
         <v>1</v>
       </c>
       <c r="Y84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
         <v>1</v>
@@ -8581,16 +8590,16 @@
         <v>1</v>
       </c>
       <c r="AC84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF84">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
@@ -8661,34 +8670,34 @@
         <v>0</v>
       </c>
       <c r="W85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF85">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
@@ -8759,34 +8768,34 @@
         <v>0</v>
       </c>
       <c r="W86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>1</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
         <v>1</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE86">
         <v>1</v>
       </c>
       <c r="AF86">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
@@ -8866,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
         <v>1</v>
@@ -8878,10 +8887,10 @@
         <v>1</v>
       </c>
       <c r="AD87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF87">
         <v>1</v>
@@ -8955,25 +8964,25 @@
         <v>0</v>
       </c>
       <c r="W88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>1</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD88">
         <v>1</v>
@@ -8982,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="AF88">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
@@ -9053,10 +9062,10 @@
         <v>1</v>
       </c>
       <c r="W89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>1</v>
@@ -9065,19 +9074,19 @@
         <v>1</v>
       </c>
       <c r="AA89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF89">
         <v>1</v>
@@ -9151,34 +9160,34 @@
         <v>0</v>
       </c>
       <c r="W90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>1</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF90">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
@@ -9252,28 +9261,28 @@
         <v>1</v>
       </c>
       <c r="X91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>1</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF91">
         <v>1</v>
@@ -9347,34 +9356,34 @@
         <v>1</v>
       </c>
       <c r="W92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
         <v>1</v>
       </c>
       <c r="AD92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF92">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
@@ -9451,19 +9460,19 @@
         <v>1</v>
       </c>
       <c r="Y93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
         <v>1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD93">
         <v>1</v>
@@ -9546,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="X94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>1</v>
@@ -9561,10 +9570,10 @@
         <v>1</v>
       </c>
       <c r="AC94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD94">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE94">
         <v>1</v>
@@ -9641,25 +9650,25 @@
         <v>1</v>
       </c>
       <c r="W95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>1</v>
       </c>
       <c r="Y95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD95">
         <v>1</v>
@@ -9668,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="AF95">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.25">
@@ -9739,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="W96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>1</v>
@@ -9748,19 +9757,19 @@
         <v>1</v>
       </c>
       <c r="Z96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE96">
         <v>1</v>
@@ -9837,34 +9846,34 @@
         <v>0</v>
       </c>
       <c r="W97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
         <v>1</v>
       </c>
       <c r="AD97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF97">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
@@ -9938,28 +9947,28 @@
         <v>1</v>
       </c>
       <c r="X98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
         <v>1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF98">
         <v>1</v>
@@ -10033,25 +10042,25 @@
         <v>1</v>
       </c>
       <c r="W99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>1</v>
       </c>
       <c r="AA99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>1</v>
       </c>
       <c r="AC99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD99">
         <v>1</v>
@@ -10131,34 +10140,34 @@
         <v>1</v>
       </c>
       <c r="W100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE100">
         <v>1</v>
       </c>
       <c r="AF100">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.25">
@@ -10229,34 +10238,34 @@
         <v>0</v>
       </c>
       <c r="W101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
         <v>1</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF101">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.25">
@@ -10327,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="W102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>1</v>
@@ -10336,22 +10345,22 @@
         <v>1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
         <v>1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF102">
         <v>1</v>
@@ -10431,25 +10440,25 @@
         <v>1</v>
       </c>
       <c r="Y103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF103">
         <v>1</v>
@@ -10532,19 +10541,19 @@
         <v>1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
         <v>1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE104">
         <v>1</v>
@@ -10624,10 +10633,10 @@
         <v>1</v>
       </c>
       <c r="X105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
         <v>1</v>
@@ -10636,7 +10645,7 @@
         <v>1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
         <v>1</v>
@@ -10719,13 +10728,13 @@
         <v>0</v>
       </c>
       <c r="W106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
         <v>1</v>
@@ -10734,7 +10743,7 @@
         <v>1</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
         <v>1</v>
@@ -10743,10 +10752,10 @@
         <v>1</v>
       </c>
       <c r="AE106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF106">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.25">
@@ -10817,10 +10826,10 @@
         <v>1</v>
       </c>
       <c r="W107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>1</v>
@@ -10835,13 +10844,13 @@
         <v>1</v>
       </c>
       <c r="AC107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF107">
         <v>1</v>
@@ -10915,10 +10924,10 @@
         <v>1</v>
       </c>
       <c r="W108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>1</v>
@@ -10936,10 +10945,10 @@
         <v>1</v>
       </c>
       <c r="AD108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF108">
         <v>1</v>
@@ -11013,28 +11022,28 @@
         <v>1</v>
       </c>
       <c r="W109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>1</v>
       </c>
       <c r="Y109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>1</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE109">
         <v>1</v>
@@ -11111,28 +11120,28 @@
         <v>0</v>
       </c>
       <c r="W110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>1</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
         <v>1</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
         <v>1</v>
       </c>
       <c r="AD110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE110">
         <v>1</v>
@@ -11209,13 +11218,13 @@
         <v>1</v>
       </c>
       <c r="W111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
         <v>1</v>
@@ -11224,16 +11233,16 @@
         <v>1</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF111">
         <v>1</v>
@@ -11307,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="W112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>1</v>
@@ -11322,16 +11331,16 @@
         <v>1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
         <v>1</v>
       </c>
       <c r="AD112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF112">
         <v>1</v>
@@ -11411,7 +11420,7 @@
         <v>1</v>
       </c>
       <c r="Y113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
         <v>1</v>
@@ -11423,16 +11432,16 @@
         <v>1</v>
       </c>
       <c r="AC113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF113">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.25">
@@ -11521,13 +11530,13 @@
         <v>1</v>
       </c>
       <c r="AC114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF114">
         <v>1</v>
@@ -11601,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="W115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>1</v>
@@ -11616,13 +11625,13 @@
         <v>1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
         <v>1</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE115">
         <v>1</v>
@@ -11702,31 +11711,31 @@
         <v>1</v>
       </c>
       <c r="X116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
         <v>1</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>1</v>
       </c>
       <c r="AC116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF116">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
@@ -11797,34 +11806,34 @@
         <v>1</v>
       </c>
       <c r="W117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>1</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>1</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>1</v>
       </c>
       <c r="AC117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD117">
         <v>1</v>
       </c>
       <c r="AE117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF117">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
@@ -11895,13 +11904,13 @@
         <v>0</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>1</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>1</v>
@@ -11913,10 +11922,10 @@
         <v>1</v>
       </c>
       <c r="AC118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE118">
         <v>1</v>
@@ -11996,28 +12005,28 @@
         <v>1</v>
       </c>
       <c r="X119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
         <v>1</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF119">
         <v>1</v>
@@ -12195,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
         <v>1</v>
@@ -12207,10 +12216,10 @@
         <v>1</v>
       </c>
       <c r="AC121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE121">
         <v>1</v>
@@ -12290,28 +12299,28 @@
         <v>1</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD122">
         <v>1</v>
       </c>
       <c r="AE122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF122">
         <v>1</v>
@@ -12385,13 +12394,13 @@
         <v>1</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>1</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>1</v>
@@ -12400,19 +12409,19 @@
         <v>1</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE123">
         <v>1</v>
       </c>
       <c r="AF123">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
@@ -12486,28 +12495,28 @@
         <v>1</v>
       </c>
       <c r="X124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>1</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF124">
         <v>1</v>
@@ -12584,28 +12593,28 @@
         <v>1</v>
       </c>
       <c r="X125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>1</v>
       </c>
       <c r="Z125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
         <v>1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
         <v>1</v>
       </c>
       <c r="AD125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF125">
         <v>1</v>
@@ -12679,13 +12688,13 @@
         <v>1</v>
       </c>
       <c r="W126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>1</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
         <v>1</v>
@@ -12697,13 +12706,13 @@
         <v>1</v>
       </c>
       <c r="AC126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE126">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF126">
         <v>1</v>
@@ -12777,25 +12786,25 @@
         <v>1</v>
       </c>
       <c r="W127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>1</v>
       </c>
       <c r="Y127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD127">
         <v>1</v>
@@ -12875,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="W128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X128">
         <v>1</v>
@@ -12890,19 +12899,19 @@
         <v>1</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF128">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:32" x14ac:dyDescent="0.25">
@@ -12976,28 +12985,28 @@
         <v>1</v>
       </c>
       <c r="X129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
         <v>1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF129">
         <v>1</v>
@@ -13071,28 +13080,28 @@
         <v>1</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>1</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE130">
         <v>1</v>
@@ -13169,31 +13178,31 @@
         <v>0</v>
       </c>
       <c r="W131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF131">
         <v>1</v>
@@ -13267,31 +13276,31 @@
         <v>0</v>
       </c>
       <c r="W132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>1</v>
       </c>
       <c r="Y132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
         <v>1</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
         <v>1</v>
       </c>
       <c r="AD132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF132">
         <v>1</v>
@@ -13371,22 +13380,22 @@
         <v>1</v>
       </c>
       <c r="Y133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
         <v>1</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
         <v>1</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE133">
         <v>1</v>
@@ -13469,25 +13478,25 @@
         <v>1</v>
       </c>
       <c r="Y134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
         <v>1</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
         <v>1</v>
       </c>
       <c r="AD134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF134">
         <v>1</v>
@@ -13561,31 +13570,31 @@
         <v>1</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF135">
         <v>1</v>
@@ -13665,7 +13674,7 @@
         <v>1</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>1</v>
@@ -13757,34 +13766,34 @@
         <v>1</v>
       </c>
       <c r="W137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>1</v>
       </c>
       <c r="Y137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
         <v>1</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE137">
         <v>1</v>
       </c>
       <c r="AF137">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.25">
@@ -13855,19 +13864,19 @@
         <v>0</v>
       </c>
       <c r="W138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>1</v>
       </c>
       <c r="Y138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
         <v>1</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>1</v>
@@ -13876,10 +13885,10 @@
         <v>1</v>
       </c>
       <c r="AD138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF138">
         <v>1</v>
@@ -13953,34 +13962,34 @@
         <v>1</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF139">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:32" x14ac:dyDescent="0.25">
@@ -14051,31 +14060,31 @@
         <v>0</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
         <v>1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
         <v>1</v>
       </c>
       <c r="AD140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF140">
         <v>1</v>
@@ -14149,19 +14158,19 @@
         <v>1</v>
       </c>
       <c r="W141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
         <v>1</v>
       </c>
       <c r="AA141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>1</v>
@@ -14170,13 +14179,13 @@
         <v>1</v>
       </c>
       <c r="AD141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE141">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF141">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.25">
@@ -14247,25 +14256,25 @@
         <v>0</v>
       </c>
       <c r="W142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>1</v>
       </c>
       <c r="AA142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD142">
         <v>1</v>
@@ -14345,31 +14354,31 @@
         <v>0</v>
       </c>
       <c r="W143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>1</v>
       </c>
       <c r="Y143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
         <v>1</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE143">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF143">
         <v>1</v>
@@ -14449,28 +14458,28 @@
         <v>1</v>
       </c>
       <c r="Y144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
         <v>1</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
         <v>1</v>
       </c>
       <c r="AD144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF144">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
